--- a/data/trans_orig/EJER_MOD_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_TIEMPO-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se realiza actividad física moderada</t>
+          <t>Nº medio de minutos/día en los que se realiza actividad física moderada (tasa de respuesta: 98,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EJER_MOD_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_TIEMPO-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,95</t>
+          <t>33,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>14,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,98</t>
+          <t>21,7</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,58; 46,49</t>
+          <t>23,01; 52,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,81; 27,65</t>
+          <t>17,79; 28,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 48,28</t>
+          <t>8,53; 41,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 17,83</t>
+          <t>10,55; 22,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,21; 15,38</t>
+          <t>10,19; 15,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 10,93</t>
+          <t>4,17; 11,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,14; 26,46</t>
+          <t>17,12; 29,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,64; 18,3</t>
+          <t>13,66; 18,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 25,01</t>
+          <t>7,27; 25,88</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,53</t>
+          <t>45,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,12</t>
+          <t>32,41</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,74</t>
+          <t>38,91</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,35; 46,87</t>
+          <t>40,72; 50,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 38,88</t>
+          <t>17,17; 38,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 23,96</t>
+          <t>18,51; 24,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,0; 32,54</t>
+          <t>28,79; 36,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,17; 26,56</t>
+          <t>13,15; 26,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,12</t>
+          <t>13,29; 18,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,3; 38,75</t>
+          <t>36,08; 42,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 31,44</t>
+          <t>18,49; 31,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,48; 20,17</t>
+          <t>16,65; 20,32</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>48,51</t>
+          <t>48,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,29</t>
+          <t>41,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,97</t>
+          <t>44,47</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,91; 55,18</t>
+          <t>41,99; 54,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,1; 43,59</t>
+          <t>35,13; 43,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,57; 39,15</t>
+          <t>30,54; 39,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,82; 48,0</t>
+          <t>36,89; 46,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,25; 42,32</t>
+          <t>35,34; 42,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,48; 25,37</t>
+          <t>19,37; 24,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,18; 49,92</t>
+          <t>40,42; 49,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,19; 41,63</t>
+          <t>36,11; 41,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,92; 30,06</t>
+          <t>25,18; 30,12</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,89</t>
+          <t>44,94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,87</t>
+          <t>32,57</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,87</t>
+          <t>38,45</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,83; 46,37</t>
+          <t>41,47; 48,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,7; 36,82</t>
+          <t>21,45; 36,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,09</t>
+          <t>22,98; 29,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,48</t>
+          <t>30,04; 35,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 26,63</t>
+          <t>16,91; 26,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 18,88</t>
+          <t>15,43; 18,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,91; 37,84</t>
+          <t>36,45; 40,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 30,75</t>
+          <t>22,39; 30,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 22,88</t>
+          <t>19,62; 22,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EJER_MOD_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_TIEMPO-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>22,07</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20,94</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25,21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>33,22</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>22,26</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>25,21</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20,94</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>12,15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,68</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>14,47</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,19</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>16,44</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,68</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>15,8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,42</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>21,7</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>15,87</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>20,28</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>13,42</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>17,82; 27,6</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 41,99</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20,48; 32,21</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>23,01; 52,54</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>17,79; 28,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>20,48; 32,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,53; 41,99</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>10,25; 15,07</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 11,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 20,77</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>10,55; 22,69</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,19; 15,32</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>13,22; 20,77</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 11,25</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>13,7; 17,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 25,88</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 24,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>17,12; 29,95</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>13,66; 18,17</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>17,31; 24,12</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>7,27; 25,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>36,93</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20,99</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>39,91</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>45,22</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>30,92</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>39,91</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>20,99</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>26,2</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15,45</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26,43</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>32,41</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>21,65</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>26,43</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>15,45</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>31,6</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18,22</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33,13</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>38,91</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>26,32</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>33,13</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>18,22</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>33,96; 40,59</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 24,05</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36,22; 44,21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>40,72; 50,51</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>17,17; 38,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>36,22; 44,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>18,51; 24,05</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>24,27; 28,24</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 18,09</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23,96; 30,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>28,79; 36,48</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>13,15; 26,74</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>23,96; 30,02</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>13,29; 18,09</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>29,87; 33,67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 20,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30,92; 35,75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>36,08; 42,1</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>18,49; 31,38</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>30,92; 35,75</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>16,65; 20,32</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>38,47</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34,19</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47,95</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>48,49</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>38,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>47,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>34,19</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>37,74</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21,98</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38,03</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>41,2</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>38,79</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>38,03</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>21,98</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>38,11</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27,35</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42,78</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>44,47</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>38,87</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>42,78</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>27,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>34,42; 42,78</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30,54; 39,24</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42,33; 56,01</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>41,99; 54,74</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>35,13; 43,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>42,33; 56,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>30,54; 39,24</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>34,36; 40,9</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19,37; 24,89</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33,04; 51,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>36,89; 46,75</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>35,34; 42,28</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>33,04; 51,9</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>19,37; 24,89</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>35,63; 40,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25,18; 30,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>38,38; 48,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>40,42; 49,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>36,11; 41,57</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>38,38; 48,77</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>25,18; 30,12</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>35,48</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25,51</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39,9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>44,94</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>31,74</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>39,9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>25,51</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>26,04</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16,97</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27,8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>32,57</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>23,39</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>27,8</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>30,6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21,02</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>33,64</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>38,45</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>27,44</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>33,64</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>21,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>33,29; 38,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 29,09</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37,04; 42,91</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>41,47; 48,65</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>21,45; 36,9</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>37,04; 42,91</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>22,98; 29,09</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>24,79; 27,61</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 18,83</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25,69; 31,79</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>30,04; 35,72</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>16,91; 26,46</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>25,69; 31,79</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>15,43; 18,83</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>29,33; 32,09</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19,62; 22,9</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31,81; 35,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>36,45; 40,79</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>22,39; 30,82</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>31,81; 35,95</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>19,62; 22,9</t>
         </is>
       </c>
     </row>
